--- a/old files/2019-2020 2nd semester.xlsx
+++ b/old files/2019-2020 2nd semester.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MySchedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MySchedule\old files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF6196-C48D-4499-913A-399BEC1B4E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAF8D7F-5D2C-4386-A3F5-47E7309E7FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -552,13 +544,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,6 +567,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,15 +891,14 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S33" activeCellId="5" sqref="S19:S21 T19 T20 T21 T15 S33"/>
+      <selection activeCell="N5" sqref="N5:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="4" width="6" customWidth="1"/>
-    <col min="5" max="7" width="6" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="7" width="6" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="15" width="9.140625" bestFit="1" customWidth="1"/>
@@ -1232,7 +1223,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="16"/>
@@ -1261,7 +1252,7 @@
       <c r="Y1" s="16"/>
     </row>
     <row r="2" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16"/>
@@ -1276,7 +1267,7 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="16"/>
@@ -1483,7 +1474,7 @@
       <c r="M5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="19" t="s">
         <v>79</v>
       </c>
       <c r="O5" s="9"/>
@@ -1495,10 +1486,10 @@
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
-      <c r="X5" s="20" t="s">
+      <c r="X5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="Y5" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1520,7 +1511,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="21"/>
+      <c r="N6" s="20"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -1530,7 +1521,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
-      <c r="X6" s="21"/>
+      <c r="X6" s="20"/>
       <c r="Y6" s="16"/>
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1551,7 +1542,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="21"/>
+      <c r="N7" s="20"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -1561,7 +1552,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
-      <c r="X7" s="21"/>
+      <c r="X7" s="20"/>
       <c r="Y7" s="16"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1600,7 +1591,7 @@
       <c r="M8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="20"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -1610,7 +1601,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
-      <c r="X8" s="21"/>
+      <c r="X8" s="20"/>
       <c r="Y8" s="16"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1633,7 +1624,7 @@
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="21"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="8" t="s">
         <v>81</v>
       </c>
@@ -1645,7 +1636,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
-      <c r="X9" s="21"/>
+      <c r="X9" s="20"/>
       <c r="Y9" s="16"/>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1666,7 +1657,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="21"/>
+      <c r="N10" s="20"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -1676,7 +1667,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
-      <c r="X10" s="21"/>
+      <c r="X10" s="20"/>
       <c r="Y10" s="16"/>
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1717,7 +1708,7 @@
       <c r="M11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="21"/>
+      <c r="N11" s="20"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -1727,7 +1718,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
-      <c r="X11" s="21"/>
+      <c r="X11" s="20"/>
       <c r="Y11" s="16"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -1762,7 +1753,7 @@
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="21"/>
+      <c r="N12" s="20"/>
       <c r="O12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -1771,7 +1762,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
-      <c r="X12" s="21"/>
+      <c r="X12" s="20"/>
       <c r="Y12" s="16"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1790,7 +1781,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="21"/>
+      <c r="N13" s="20"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -1800,7 +1791,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
-      <c r="X13" s="21"/>
+      <c r="X13" s="20"/>
       <c r="Y13" s="16"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1821,7 +1812,7 @@
       <c r="M14" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="N14" s="21"/>
+      <c r="N14" s="20"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="8" t="s">
@@ -1833,7 +1824,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
-      <c r="X14" s="21"/>
+      <c r="X14" s="20"/>
       <c r="Y14" s="16"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1854,7 +1845,7 @@
       <c r="M15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="21"/>
+      <c r="N15" s="20"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -1866,7 +1857,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
-      <c r="X15" s="21"/>
+      <c r="X15" s="20"/>
       <c r="Y15" s="16"/>
     </row>
     <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1885,7 +1876,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="22"/>
+      <c r="N16" s="21"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -1895,7 +1886,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
-      <c r="X16" s="21"/>
+      <c r="X16" s="20"/>
       <c r="Y16" s="16"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1926,7 +1917,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
-      <c r="X17" s="21"/>
+      <c r="X17" s="20"/>
       <c r="Y17" s="16"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
@@ -1960,7 +1951,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
-      <c r="X18" s="21"/>
+      <c r="X18" s="20"/>
       <c r="Y18" s="16"/>
     </row>
     <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2001,7 +1992,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
-      <c r="X19" s="21"/>
+      <c r="X19" s="20"/>
       <c r="Y19" s="16"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2050,7 +2041,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
-      <c r="X20" s="21"/>
+      <c r="X20" s="20"/>
       <c r="Y20" s="16"/>
     </row>
     <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2089,7 +2080,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
-      <c r="X21" s="21"/>
+      <c r="X21" s="20"/>
       <c r="Y21" s="16"/>
     </row>
     <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2118,7 +2109,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
-      <c r="X22" s="21"/>
+      <c r="X22" s="20"/>
       <c r="Y22" s="16"/>
     </row>
     <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2163,7 +2154,7 @@
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
-      <c r="X23" s="21"/>
+      <c r="X23" s="20"/>
       <c r="Y23" s="16"/>
     </row>
     <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2198,7 +2189,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
-      <c r="X24" s="21"/>
+      <c r="X24" s="20"/>
       <c r="Y24" s="16"/>
     </row>
     <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2243,7 +2234,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-      <c r="X25" s="21"/>
+      <c r="X25" s="20"/>
       <c r="Y25" s="16"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2277,7 +2268,7 @@
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
-      <c r="X26" s="21"/>
+      <c r="X26" s="20"/>
       <c r="Y26" s="16"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2305,7 +2296,7 @@
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
-      <c r="X27" s="21"/>
+      <c r="X27" s="20"/>
       <c r="Y27" s="16"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2334,7 +2325,7 @@
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
-      <c r="X28" s="21"/>
+      <c r="X28" s="20"/>
       <c r="Y28" s="16"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2354,7 +2345,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="19" t="s">
         <v>62</v>
       </c>
       <c r="N29" s="8" t="s">
@@ -2369,7 +2360,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
-      <c r="X29" s="21"/>
+      <c r="X29" s="20"/>
       <c r="Y29" s="16"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,7 +2394,7 @@
         <v>58</v>
       </c>
       <c r="L30" s="9"/>
-      <c r="M30" s="21" t="s">
+      <c r="M30" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N30" s="9"/>
@@ -2415,7 +2406,7 @@
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
-      <c r="X30" s="21"/>
+      <c r="X30" s="20"/>
       <c r="Y30" s="16"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2451,7 +2442,7 @@
       <c r="L31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="21" t="s">
+      <c r="M31" s="20" t="s">
         <v>0</v>
       </c>
       <c r="O31" s="9"/>
@@ -2463,7 +2454,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
-      <c r="X31" s="21"/>
+      <c r="X31" s="20"/>
       <c r="Y31" s="16"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2483,7 +2474,7 @@
         <v>78</v>
       </c>
       <c r="L32" s="9"/>
-      <c r="M32" s="21" t="s">
+      <c r="M32" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N32" s="9"/>
@@ -2498,7 +2489,7 @@
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
-      <c r="X32" s="21"/>
+      <c r="X32" s="20"/>
       <c r="Y32" s="16"/>
     </row>
     <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2516,7 +2507,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="21" t="s">
+      <c r="M33" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N33" s="9"/>
@@ -2533,7 +2524,7 @@
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
-      <c r="X33" s="22"/>
+      <c r="X33" s="21"/>
       <c r="Y33" s="16"/>
     </row>
     <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2551,7 +2542,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="21" t="s">
+      <c r="M34" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N34" s="9"/>
@@ -2586,7 +2577,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="21" t="s">
+      <c r="M35" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N35" s="9"/>
@@ -2619,7 +2610,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="21" t="s">
+      <c r="M36" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N36" s="9"/>
@@ -2652,7 +2643,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="21" t="s">
+      <c r="M37" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N37" s="13"/>
@@ -2685,7 +2676,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="21" t="s">
+      <c r="M38" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N38" s="9"/>
@@ -2718,7 +2709,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="21" t="s">
+      <c r="M39" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N39" s="9"/>
@@ -2751,7 +2742,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="21" t="s">
+      <c r="M40" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N40" s="9"/>
@@ -2786,7 +2777,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="21" t="s">
+      <c r="M41" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N41" s="9"/>
@@ -2821,7 +2812,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
-      <c r="M42" s="21" t="s">
+      <c r="M42" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N42" s="9"/>
@@ -2856,7 +2847,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="21" t="s">
+      <c r="M43" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N43" s="9"/>
@@ -2891,7 +2882,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="21" t="s">
+      <c r="M44" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N44" s="9"/>
@@ -2926,7 +2917,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
-      <c r="M45" s="21" t="s">
+      <c r="M45" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N45" s="9"/>
@@ -2961,7 +2952,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
-      <c r="M46" s="22" t="s">
+      <c r="M46" s="21" t="s">
         <v>0</v>
       </c>
       <c r="N46" s="9"/>
@@ -2978,7 +2969,7 @@
       <c r="Y46" s="16"/>
     </row>
     <row r="47" spans="1:25" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="16"/>
@@ -3008,6 +2999,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A47:Y47"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A46"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:Y2"/>
@@ -3019,12 +3016,6 @@
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="N5:N16"/>
-    <mergeCell ref="A47:Y47"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
